--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,246 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>louder.mp3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Has a new trust to look at all the agreement, they sign inside safe to sign. I agree. Signing, I agree. Correct. Not only that, I'm saying agreement. I'm talking about the agreement. Huh? On voting of the borrower. Yes. Not borrower, I'm saying safe to sign. I'm talking about safe to sign as the service. Safe to sign, signing the agreement, I agree. Definitely. So what is the dispute then? No, the dispute here is when... I never asked that onboarding of the product could come in safe to sign. No, I... Let me finish this. When the borrower come in the first time, they need to go through the registration everyday. The one I say is not. I'm saying safe to sign as the system has its own user. Yes. The one definitely is not. I never ask all the borrower to be in the system. I'm saying... I'm done. Then I expect. When they come onboarding the first time, I'm saying board it already with the borrower. I'm going to say that point, we're going to ask them more. I just want to finish it up. Okay. I just want to clarify, finish it up. When they come in, they go through with Tane. In Tane, we go through, SCDD, everything is done. Okay? Then when they create the document, that's when they come to me. And then change order.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it for that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement that had we only pass you the following word. Then, afterwards, once we know who is who already, then we pass you another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. So that person will become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. So that person will become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. So that person will become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. So that person will become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>shortened.mp3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it. For that person to become that signatory. Because this was already proposed by Jorah the last time to be able to update the signatory. It's not a problem. So, if that's the case, during the very first time that we called you to create an agreement, then we only pass you the borrowable. Correct. Then, after work, once we know who is who already, then we pass you the another signatory.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -720,6 +720,231 @@
         </is>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.
+SPEAKER_02 :  signal to the light, because this was already proposed by Jorah the last time to be able to update the signatory.
+SPEAKER_02 :  Okay.
+SPEAKER_02 :  Okay.
+SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.
+SPEAKER_02 :  Yeah, correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.
+SPEAKER_02 :  This was already proposed by Jorah the last time to be able to update the signatory.
+SPEAKER_02 :  Okay.
+SPEAKER_02 :  Okay.
+SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.
+SPEAKER_02 :  Yeah, correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.
+SPEAKER_02 :  signal to the signal. This was already proposed by Jorah the last time to be able to update the signal to the signal.
+SPEAKER_02 :  Okay.
+SPEAKER_02 :  Okay.
+SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.
+SPEAKER_02 :  Yeah, correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.
+SPEAKER_02 :  This was already proposed by Jorah the last time to be able to update the signatory.
+SPEAKER_02 :  Okay.
+SPEAKER_02 :  Okay.
+SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.
+SPEAKER_02 :  Yeah, correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>shortened.wav</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>['SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.', 'SPEAKER_02 :  This was already proposed by Jorah the last time to be able to update the signatory.', 'SPEAKER_02 :  Okay.', 'SPEAKER_02 :  Okay.', 'SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.', 'SPEAKER_02 :  Yeah, correct.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sample_3.wav</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>['SPEAKER_04 :  We need to be quicker.', 'SPEAKER_00 :  Oh', 'SPEAKER_00 :  Then maybe to be able to view it and have it.', "SPEAKER_00 :  Because they're all cold.", "SPEAKER_03 :  Because if I call you, you'll call to the bus stop. doorSíng, how are you bagaing?", "SPEAKER_02 :  You call him to get the bus and then from there you will be able to view it when I'm down talk with him because I'm only saying to you that you didn't get it.", "SPEAKER_02 :  I don't know what to pass over here.", 'SPEAKER_01 :  Community Different Natural The', 'SPEAKER_02 :  So what is the idea of that?']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sample_3.wav</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>['SPEAKER_04 : ', 'SPEAKER_00 :  Oh', 'SPEAKER_00 :  Mel니子, be a good viewer in our high', 'SPEAKER_00 :  Because if I call you, I call you.', 'SPEAKER_03 :  I call you to get the bus foot one.', 'SPEAKER_02 :  I will call him to get the password and then from there you will be able to view it when I download it. we all need ferryogi.', 'SPEAKER_02 : ', "SPEAKER_01 :  As we never die we'd call logistics.", 'SPEAKER_02 :  So what if the iron has...']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sample_2.wav</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>['SPEAKER_01 :  not powerful and safe to stand.', "SPEAKER_01 :  I'm attribute triple", 'SPEAKER_00 :  Supposed to side, side.', 'SPEAKER_00 :  Signing the agreement, I agree.', "SPEAKER_00 :  DON'T DEFINITELY", 'SPEAKER_01 : ', 'SPEAKER_00 :  So that fuck this up?', 'SPEAKER_01 :  when I never casted on boarding of the crowd could.', 'SPEAKER_01 : ', 'SPEAKER_01 :  Not I.', 'SPEAKER_01 :  Let me finish this.', 'SPEAKER_01 :  When the c-', 'SPEAKER_01 :  the bottle', 'SPEAKER_00 : ', 'SPEAKER_00 :  Moreover', "SPEAKER_00 :  They ain't know", 'SPEAKER_00 :  Yes.', 'SPEAKER_00 :  Stop principals.', 'SPEAKER_01 :  The one definitely is not and never ask all the followers to be in the system.', "SPEAKER_00 :  I'm saying, Gangnam", 'SPEAKER_00 :  Then, next time.', 'SPEAKER_00 :  Thank you.', "SPEAKER_00 :  when they come on boarding the first time. I don't want to see you. Why do you want a theatre?", "SPEAKER_01 :  I stay in Goudir already, in Dhammarovah, I already stay at home, but I don't ask for more. I don't know.", 'SPEAKER_00 : ', 'SPEAKER_00 : ', "SPEAKER_00 :  If you want to finish it up, I just want to clarify finish it up. When they come in, they go through the SDD, everything is done. Then when they create the document, that's when they come to me and then change order.", 'SPEAKER_01 : ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sample_1.wav</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>['SPEAKER_01 :  I can create an endpoint for you that at the end of the day, just before the person comes in, you just update it, so that person will be context.', 'SPEAKER_02 :  This was already proposed by Jorah the last time to be able to update the cemetery.', 'SPEAKER_02 :  Okay.', 'SPEAKER_02 : ', 'SPEAKER_00 :  that we call you to create an agreement that we only pass you the borrowable. Then afterwards once we know who is who already then we pass you the another series of ideas.', 'SPEAKER_02 :  Correct.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sample_1.wav</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.
+SPEAKER_02 :  signal torque. This was already proposed by Jordan the last time to be able to update the signal Torrie.
+SPEAKER_02 :  Okay.
+SPEAKER_02 :  Okay.
+SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.
+SPEAKER_02 :  Yeah, correct.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sample_1.wav</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>['SPEAKER_01 :  I can create the endpoint for you that at the end of the day, just before the person comes in, you just update it, and then the person will be context.', 'SPEAKER_02 :  signatory like this was already proposed by Jorah the last time to be able to update the signatory.', 'SPEAKER_02 :  Okay.', 'SPEAKER_02 :  Okay.', 'SPEAKER_00 :  the very first time that we call you to create an agreement that I think we only pass you the borrowable Yeah, correct Afterward, once we know who is already, then we pass you the another surrender interest.', 'SPEAKER_02 :  Yeah, correct.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sample_1.wav</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>['SPEAKER_01 :  I can create an endpoint for you that at the end of the day, just before the person comes in, you just unban it. But that person will be context.', 'SPEAKER_02 :  context signatorily. Because this was already proposed by Chora the last time to be able to update the signatory.', 'SPEAKER_02 :  Okay.', 'SPEAKER_02 :  Okay.', 'SPEAKER_00 :  The very first time that we call you to create the agreement that time, we only pass you the borrower. Yeah, correct. And then afterwards, once we know who is who already, then we pass you another semester interest.', 'SPEAKER_02 :  Yeah, correct.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sample_1.wav</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>["SPEAKER_01 :  I can create the end point for you that at the end of the day, just before the present, our interview just updated, but that doesn't really count as...", 'SPEAKER_02 :  Because this was already proposed by João the last time to be able to update the signatory.', 'SPEAKER_02 :  Okay.', 'SPEAKER_02 :  Okay.', 'SPEAKER_00 :  the very first time that we call you to create an agreement that we only pass you the borrower. Yeah, correct. Then, after work, once we know who is who already, then we pass you another secretary.', 'SPEAKER_02 :  Yeah, correct.']</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
